--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.765109733567</v>
+        <v>33.00563866666667</v>
       </c>
       <c r="H2">
-        <v>26.765109733567</v>
+        <v>99.01691600000001</v>
       </c>
       <c r="I2">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490913</v>
       </c>
       <c r="J2">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490912</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N2">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O2">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P2">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q2">
-        <v>20.36188379417577</v>
+        <v>26.61349163549111</v>
       </c>
       <c r="R2">
-        <v>20.36188379417577</v>
+        <v>239.52142471942</v>
       </c>
       <c r="S2">
-        <v>0.1131689078518335</v>
+        <v>0.1171255442621569</v>
       </c>
       <c r="T2">
-        <v>0.1131689078518335</v>
+        <v>0.1171255442621569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.765109733567</v>
+        <v>33.00563866666667</v>
       </c>
       <c r="H3">
-        <v>26.765109733567</v>
+        <v>99.01691600000001</v>
       </c>
       <c r="I3">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490913</v>
       </c>
       <c r="J3">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490912</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N3">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O3">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P3">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q3">
-        <v>94.33397779468835</v>
+        <v>118.0974427075613</v>
       </c>
       <c r="R3">
-        <v>94.33397779468835</v>
+        <v>1062.876984368052</v>
       </c>
       <c r="S3">
-        <v>0.5242969338326945</v>
+        <v>0.519744926466007</v>
       </c>
       <c r="T3">
-        <v>0.5242969338326945</v>
+        <v>0.5197449264660069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.765109733567</v>
+        <v>33.00563866666667</v>
       </c>
       <c r="H4">
-        <v>26.765109733567</v>
+        <v>99.01691600000001</v>
       </c>
       <c r="I4">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490913</v>
       </c>
       <c r="J4">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N4">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O4">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P4">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q4">
-        <v>5.726802745780672</v>
+        <v>7.12575235994</v>
       </c>
       <c r="R4">
-        <v>5.726802745780672</v>
+        <v>64.13177123946001</v>
       </c>
       <c r="S4">
-        <v>0.03182888276811886</v>
+        <v>0.03136032035429388</v>
       </c>
       <c r="T4">
-        <v>0.03182888276811886</v>
+        <v>0.03136032035429388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.765109733567</v>
+        <v>33.00563866666667</v>
       </c>
       <c r="H5">
-        <v>26.765109733567</v>
+        <v>99.01691600000001</v>
       </c>
       <c r="I5">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490913</v>
       </c>
       <c r="J5">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490912</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N5">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O5">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P5">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q5">
-        <v>45.78348929600903</v>
+        <v>56.50651154393867</v>
       </c>
       <c r="R5">
-        <v>45.78348929600903</v>
+        <v>508.5586038954481</v>
       </c>
       <c r="S5">
-        <v>0.2544591420739508</v>
+        <v>0.2486842391666335</v>
       </c>
       <c r="T5">
-        <v>0.2544591420739508</v>
+        <v>0.2486842391666335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06917978311268801</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H6">
-        <v>0.06917978311268801</v>
+        <v>0.223964</v>
       </c>
       <c r="I6">
-        <v>0.002387626756324167</v>
+        <v>0.002073948231580021</v>
       </c>
       <c r="J6">
-        <v>0.002387626756324167</v>
+        <v>0.00207394823158002</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N6">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O6">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P6">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q6">
-        <v>0.0526293640739394</v>
+        <v>0.06019642179777777</v>
       </c>
       <c r="R6">
-        <v>0.0526293640739394</v>
+        <v>0.5417677961799999</v>
       </c>
       <c r="S6">
-        <v>0.0002925076929713092</v>
+        <v>0.0002649234742387828</v>
       </c>
       <c r="T6">
-        <v>0.0002925076929713092</v>
+        <v>0.0002649234742387827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06917978311268801</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H7">
-        <v>0.06917978311268801</v>
+        <v>0.223964</v>
       </c>
       <c r="I7">
-        <v>0.002387626756324167</v>
+        <v>0.002073948231580021</v>
       </c>
       <c r="J7">
-        <v>0.002387626756324167</v>
+        <v>0.00207394823158002</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N7">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O7">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P7">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q7">
-        <v>0.2438250464487799</v>
+        <v>0.2671217881453333</v>
       </c>
       <c r="R7">
-        <v>0.2438250464487799</v>
+        <v>2.404096093308</v>
       </c>
       <c r="S7">
-        <v>0.001355150362925836</v>
+        <v>0.001175598649336168</v>
       </c>
       <c r="T7">
-        <v>0.001355150362925836</v>
+        <v>0.001175598649336167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06917978311268801</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H8">
-        <v>0.06917978311268801</v>
+        <v>0.223964</v>
       </c>
       <c r="I8">
-        <v>0.002387626756324167</v>
+        <v>0.002073948231580021</v>
       </c>
       <c r="J8">
-        <v>0.002387626756324167</v>
+        <v>0.00207394823158002</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N8">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O8">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P8">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q8">
-        <v>0.01480206790952895</v>
+        <v>0.01611756926</v>
       </c>
       <c r="R8">
-        <v>0.01480206790952895</v>
+        <v>0.14505812334</v>
       </c>
       <c r="S8">
-        <v>8.226811802890316E-05</v>
+        <v>7.093316042916418E-05</v>
       </c>
       <c r="T8">
-        <v>8.226811802890316E-05</v>
+        <v>7.093316042916417E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06917978311268801</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H9">
-        <v>0.06917978311268801</v>
+        <v>0.223964</v>
       </c>
       <c r="I9">
-        <v>0.002387626756324167</v>
+        <v>0.002073948231580021</v>
       </c>
       <c r="J9">
-        <v>0.002387626756324167</v>
+        <v>0.00207394823158002</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N9">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O9">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P9">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q9">
-        <v>0.118336591598867</v>
+        <v>0.1278107303546667</v>
       </c>
       <c r="R9">
-        <v>0.118336591598867</v>
+        <v>1.150296573192</v>
       </c>
       <c r="S9">
-        <v>0.000657700582398119</v>
+        <v>0.0005624929475759061</v>
       </c>
       <c r="T9">
-        <v>0.000657700582398119</v>
+        <v>0.000562492947575906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.82536869647953</v>
+        <v>2.576299333333333</v>
       </c>
       <c r="H10">
-        <v>1.82536869647953</v>
+        <v>7.728898</v>
       </c>
       <c r="I10">
-        <v>0.06299960687606947</v>
+        <v>0.07157103078692272</v>
       </c>
       <c r="J10">
-        <v>0.06299960687606947</v>
+        <v>0.0715710307869227</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N10">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O10">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P10">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q10">
-        <v>1.388671507392655</v>
+        <v>2.077351735278889</v>
       </c>
       <c r="R10">
-        <v>1.388671507392655</v>
+        <v>18.69616561751</v>
       </c>
       <c r="S10">
-        <v>0.007718069675927422</v>
+        <v>0.009142391233399919</v>
       </c>
       <c r="T10">
-        <v>0.007718069675927422</v>
+        <v>0.009142391233399917</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.82536869647953</v>
+        <v>2.576299333333333</v>
       </c>
       <c r="H11">
-        <v>1.82536869647953</v>
+        <v>7.728898</v>
       </c>
       <c r="I11">
-        <v>0.06299960687606947</v>
+        <v>0.07157103078692272</v>
       </c>
       <c r="J11">
-        <v>0.06299960687606947</v>
+        <v>0.0715710307869227</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N11">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O11">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P11">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q11">
-        <v>6.433535740930092</v>
+        <v>9.218254068300666</v>
       </c>
       <c r="R11">
-        <v>6.433535740930092</v>
+        <v>82.96428661470598</v>
       </c>
       <c r="S11">
-        <v>0.03575681998710997</v>
+        <v>0.04056938637306446</v>
       </c>
       <c r="T11">
-        <v>0.03575681998710997</v>
+        <v>0.04056938637306445</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.82536869647953</v>
+        <v>2.576299333333333</v>
       </c>
       <c r="H12">
-        <v>1.82536869647953</v>
+        <v>7.728898</v>
       </c>
       <c r="I12">
-        <v>0.06299960687606947</v>
+        <v>0.07157103078692272</v>
       </c>
       <c r="J12">
-        <v>0.06299960687606947</v>
+        <v>0.0715710307869227</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N12">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O12">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P12">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q12">
-        <v>0.390565425179294</v>
+        <v>0.55621014457</v>
       </c>
       <c r="R12">
-        <v>0.390565425179294</v>
+        <v>5.005891301129999</v>
       </c>
       <c r="S12">
-        <v>0.00217071578735119</v>
+        <v>0.002447871808748934</v>
       </c>
       <c r="T12">
-        <v>0.00217071578735119</v>
+        <v>0.002447871808748933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.82536869647953</v>
+        <v>2.576299333333333</v>
       </c>
       <c r="H13">
-        <v>1.82536869647953</v>
+        <v>7.728898</v>
       </c>
       <c r="I13">
-        <v>0.06299960687606947</v>
+        <v>0.07157103078692272</v>
       </c>
       <c r="J13">
-        <v>0.06299960687606947</v>
+        <v>0.0715710307869227</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N13">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O13">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P13">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q13">
-        <v>3.122413806946976</v>
+        <v>4.410691442449334</v>
       </c>
       <c r="R13">
-        <v>3.122413806946976</v>
+        <v>39.69622298204401</v>
       </c>
       <c r="S13">
-        <v>0.01735400142568089</v>
+        <v>0.01941138137170941</v>
       </c>
       <c r="T13">
-        <v>0.01735400142568089</v>
+        <v>0.0194113813717094</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.314628881525812</v>
+        <v>0.3398056666666667</v>
       </c>
       <c r="H14">
-        <v>0.314628881525812</v>
+        <v>1.019417</v>
       </c>
       <c r="I14">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="J14">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N14">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O14">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P14">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q14">
-        <v>0.2393577604460765</v>
+        <v>0.2739960695461111</v>
       </c>
       <c r="R14">
-        <v>0.2393577604460765</v>
+        <v>2.465964625915</v>
       </c>
       <c r="S14">
-        <v>0.001330321723144858</v>
+        <v>0.00120585225008518</v>
       </c>
       <c r="T14">
-        <v>0.001330321723144858</v>
+        <v>0.00120585225008518</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.314628881525812</v>
+        <v>0.3398056666666667</v>
       </c>
       <c r="H15">
-        <v>0.314628881525812</v>
+        <v>1.019417</v>
       </c>
       <c r="I15">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="J15">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N15">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O15">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P15">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q15">
-        <v>1.10891359007584</v>
+        <v>1.215858316094333</v>
       </c>
       <c r="R15">
-        <v>1.10891359007584</v>
+        <v>10.942724844849</v>
       </c>
       <c r="S15">
-        <v>0.006163208726632377</v>
+        <v>0.005350972693425408</v>
       </c>
       <c r="T15">
-        <v>0.006163208726632377</v>
+        <v>0.005350972693425407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.314628881525812</v>
+        <v>0.3398056666666667</v>
       </c>
       <c r="H16">
-        <v>0.314628881525812</v>
+        <v>1.019417</v>
       </c>
       <c r="I16">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="J16">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N16">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O16">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P16">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q16">
-        <v>0.06731963965625753</v>
+        <v>0.07336234440499999</v>
       </c>
       <c r="R16">
-        <v>0.06731963965625753</v>
+        <v>0.660261099645</v>
       </c>
       <c r="S16">
-        <v>0.0003741544826543409</v>
+        <v>0.0003228664857084945</v>
       </c>
       <c r="T16">
-        <v>0.0003741544826543409</v>
+        <v>0.0003228664857084945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.314628881525812</v>
+        <v>0.3398056666666667</v>
       </c>
       <c r="H17">
-        <v>0.314628881525812</v>
+        <v>1.019417</v>
       </c>
       <c r="I17">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="J17">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N17">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O17">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P17">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q17">
-        <v>0.5381934979136949</v>
+        <v>0.5817561362806667</v>
       </c>
       <c r="R17">
-        <v>0.5381934979136949</v>
+        <v>5.235805226526001</v>
       </c>
       <c r="S17">
-        <v>0.002991214908576994</v>
+        <v>0.002560299303187063</v>
       </c>
       <c r="T17">
-        <v>0.002991214908576994</v>
+        <v>0.002560299303187063</v>
       </c>
     </row>
   </sheetData>
